--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.4128211269151</v>
+        <v>41.47959733333333</v>
       </c>
       <c r="H2">
-        <v>17.4128211269151</v>
+        <v>124.438792</v>
       </c>
       <c r="I2">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="J2">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.06522918415641</v>
+        <v>57.24915866666667</v>
       </c>
       <c r="N2">
-        <v>9.06522918415641</v>
+        <v>171.747476</v>
       </c>
       <c r="O2">
-        <v>0.9048336782776899</v>
+        <v>0.9704198736548433</v>
       </c>
       <c r="P2">
-        <v>0.9048336782776899</v>
+        <v>0.9704198736548435</v>
       </c>
       <c r="Q2">
-        <v>157.8512142582061</v>
+        <v>2374.672049165443</v>
       </c>
       <c r="R2">
-        <v>157.8512142582061</v>
+        <v>21372.04844248899</v>
       </c>
       <c r="S2">
-        <v>0.01318728047554277</v>
+        <v>0.03291969191566322</v>
       </c>
       <c r="T2">
-        <v>0.01318728047554277</v>
+        <v>0.03291969191566322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.4128211269151</v>
+        <v>41.47959733333333</v>
       </c>
       <c r="H3">
-        <v>17.4128211269151</v>
+        <v>124.438792</v>
       </c>
       <c r="I3">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="J3">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.953439883745289</v>
+        <v>1.569166</v>
       </c>
       <c r="N3">
-        <v>0.953439883745289</v>
+        <v>4.707498</v>
       </c>
       <c r="O3">
-        <v>0.09516632172231002</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="P3">
-        <v>0.09516632172231002</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="Q3">
-        <v>16.60207815092345</v>
+        <v>65.08837382915733</v>
       </c>
       <c r="R3">
-        <v>16.60207815092345</v>
+        <v>585.7953644624159</v>
       </c>
       <c r="S3">
-        <v>0.001386978630997298</v>
+        <v>0.0009023095271199257</v>
       </c>
       <c r="T3">
-        <v>0.001386978630997298</v>
+        <v>0.0009023095271199256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1109.38072997686</v>
+        <v>41.47959733333333</v>
       </c>
       <c r="H4">
-        <v>1109.38072997686</v>
+        <v>124.438792</v>
       </c>
       <c r="I4">
-        <v>0.9285343304591651</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="J4">
-        <v>0.9285343304591651</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>9.06522918415641</v>
+        <v>0.1758903333333333</v>
       </c>
       <c r="N4">
-        <v>9.06522918415641</v>
+        <v>0.527671</v>
       </c>
       <c r="O4">
-        <v>0.9048336782776899</v>
+        <v>0.002981484427470275</v>
       </c>
       <c r="P4">
-        <v>0.9048336782776899</v>
+        <v>0.002981484427470276</v>
       </c>
       <c r="Q4">
-        <v>10056.79056972697</v>
+        <v>7.295860201492444</v>
       </c>
       <c r="R4">
-        <v>10056.79056972697</v>
+        <v>65.66274181343199</v>
       </c>
       <c r="S4">
-        <v>0.8401691336364784</v>
+        <v>0.0001011413218837052</v>
       </c>
       <c r="T4">
-        <v>0.8401691336364784</v>
+        <v>0.0001011413218837052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1109.38072997686</v>
+        <v>1112.909261</v>
       </c>
       <c r="H5">
-        <v>1109.38072997686</v>
+        <v>3338.727783</v>
       </c>
       <c r="I5">
-        <v>0.9285343304591651</v>
+        <v>0.9101674599595009</v>
       </c>
       <c r="J5">
-        <v>0.9285343304591651</v>
+        <v>0.9101674599595008</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.953439883745289</v>
+        <v>57.24915866666667</v>
       </c>
       <c r="N5">
-        <v>0.953439883745289</v>
+        <v>171.747476</v>
       </c>
       <c r="O5">
-        <v>0.09516632172231002</v>
+        <v>0.9704198736548433</v>
       </c>
       <c r="P5">
-        <v>0.09516632172231002</v>
+        <v>0.9704198736548435</v>
       </c>
       <c r="Q5">
-        <v>1057.727834218401</v>
+        <v>63713.11886459174</v>
       </c>
       <c r="R5">
-        <v>1057.727834218401</v>
+        <v>573418.0697813256</v>
       </c>
       <c r="S5">
-        <v>0.08836519682268663</v>
+        <v>0.8832445914986484</v>
       </c>
       <c r="T5">
-        <v>0.08836519682268663</v>
+        <v>0.8832445914986485</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.97189114784889</v>
+        <v>1112.909261</v>
       </c>
       <c r="H6">
-        <v>67.97189114784889</v>
+        <v>3338.727783</v>
       </c>
       <c r="I6">
-        <v>0.0568914104342948</v>
+        <v>0.9101674599595009</v>
       </c>
       <c r="J6">
-        <v>0.0568914104342948</v>
+        <v>0.9101674599595008</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.06522918415641</v>
+        <v>1.569166</v>
       </c>
       <c r="N6">
-        <v>9.06522918415641</v>
+        <v>4.707498</v>
       </c>
       <c r="O6">
-        <v>0.9048336782776899</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="P6">
-        <v>0.9048336782776899</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="Q6">
-        <v>616.1807713357825</v>
+        <v>1746.339373446326</v>
       </c>
       <c r="R6">
-        <v>616.1807713357825</v>
+        <v>15717.05436101693</v>
       </c>
       <c r="S6">
-        <v>0.05147726416566872</v>
+        <v>0.02420921835259288</v>
       </c>
       <c r="T6">
-        <v>0.05147726416566872</v>
+        <v>0.02420921835259288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +835,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1112.909261</v>
+      </c>
+      <c r="H7">
+        <v>3338.727783</v>
+      </c>
+      <c r="I7">
+        <v>0.9101674599595009</v>
+      </c>
+      <c r="J7">
+        <v>0.9101674599595008</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1758903333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.527671</v>
+      </c>
+      <c r="O7">
+        <v>0.002981484427470275</v>
+      </c>
+      <c r="P7">
+        <v>0.002981484427470276</v>
+      </c>
+      <c r="Q7">
+        <v>195.7499808870437</v>
+      </c>
+      <c r="R7">
+        <v>1761.749827983393</v>
+      </c>
+      <c r="S7">
+        <v>0.002713650108259427</v>
+      </c>
+      <c r="T7">
+        <v>0.002713650108259427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>68.36333833333333</v>
+      </c>
+      <c r="H8">
+        <v>205.090015</v>
+      </c>
+      <c r="I8">
+        <v>0.05590939727583234</v>
+      </c>
+      <c r="J8">
+        <v>0.05590939727583233</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>57.24915866666667</v>
+      </c>
+      <c r="N8">
+        <v>171.747476</v>
+      </c>
+      <c r="O8">
+        <v>0.9704198736548433</v>
+      </c>
+      <c r="P8">
+        <v>0.9704198736548435</v>
+      </c>
+      <c r="Q8">
+        <v>3913.743603228015</v>
+      </c>
+      <c r="R8">
+        <v>35223.69242905214</v>
+      </c>
+      <c r="S8">
+        <v>0.05425559024053166</v>
+      </c>
+      <c r="T8">
+        <v>0.05425559024053166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>67.97189114784889</v>
-      </c>
-      <c r="H7">
-        <v>67.97189114784889</v>
-      </c>
-      <c r="I7">
-        <v>0.0568914104342948</v>
-      </c>
-      <c r="J7">
-        <v>0.0568914104342948</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.953439883745289</v>
-      </c>
-      <c r="N7">
-        <v>0.953439883745289</v>
-      </c>
-      <c r="O7">
-        <v>0.09516632172231002</v>
-      </c>
-      <c r="P7">
-        <v>0.09516632172231002</v>
-      </c>
-      <c r="Q7">
-        <v>64.80711199395249</v>
-      </c>
-      <c r="R7">
-        <v>64.80711199395249</v>
-      </c>
-      <c r="S7">
-        <v>0.005414146268626084</v>
-      </c>
-      <c r="T7">
-        <v>0.005414146268626084</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>68.36333833333333</v>
+      </c>
+      <c r="H9">
+        <v>205.090015</v>
+      </c>
+      <c r="I9">
+        <v>0.05590939727583234</v>
+      </c>
+      <c r="J9">
+        <v>0.05590939727583233</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.569166</v>
+      </c>
+      <c r="N9">
+        <v>4.707498</v>
+      </c>
+      <c r="O9">
+        <v>0.02659864191768634</v>
+      </c>
+      <c r="P9">
+        <v>0.02659864191768634</v>
+      </c>
+      <c r="Q9">
+        <v>107.2734261591633</v>
+      </c>
+      <c r="R9">
+        <v>965.46083543247</v>
+      </c>
+      <c r="S9">
+        <v>0.001487114037973532</v>
+      </c>
+      <c r="T9">
+        <v>0.001487114037973532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>68.36333833333333</v>
+      </c>
+      <c r="H10">
+        <v>205.090015</v>
+      </c>
+      <c r="I10">
+        <v>0.05590939727583234</v>
+      </c>
+      <c r="J10">
+        <v>0.05590939727583233</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1758903333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.527671</v>
+      </c>
+      <c r="O10">
+        <v>0.002981484427470275</v>
+      </c>
+      <c r="P10">
+        <v>0.002981484427470276</v>
+      </c>
+      <c r="Q10">
+        <v>12.02445036722944</v>
+      </c>
+      <c r="R10">
+        <v>108.220053305065</v>
+      </c>
+      <c r="S10">
+        <v>0.0001666929973271431</v>
+      </c>
+      <c r="T10">
+        <v>0.0001666929973271431</v>
       </c>
     </row>
   </sheetData>
